--- a/image/episodeofcare.xlsx
+++ b/image/episodeofcare.xlsx
@@ -808,44 +808,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.17578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.48046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.13671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="43.609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.0546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="43.31640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/episodeofcare.xlsx
+++ b/image/episodeofcare.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="207">
   <si>
     <t>Path</t>
   </si>
@@ -169,7 +169,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -403,10 +403,6 @@
   </si>
   <si>
     <t>EpisodeOfCare.statusHistory.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -808,44 +804,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.48046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.17578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.13671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="43.31640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="43.609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.0546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2279,13 +2275,13 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2336,7 +2332,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2362,7 +2358,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2391,7 +2387,7 @@
         <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>97</v>
@@ -2444,7 +2440,7 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2470,11 +2466,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2496,10 +2492,10 @@
         <v>94</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>97</v>
@@ -2554,7 +2550,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2580,7 +2576,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2660,7 +2656,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>49</v>
@@ -2686,7 +2682,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2709,13 +2705,13 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2766,7 +2762,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>49</v>
@@ -2792,7 +2788,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2815,16 +2811,16 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2850,14 +2846,14 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
       </c>
@@ -2874,7 +2870,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -2889,18 +2885,18 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2926,10 +2922,10 @@
         <v>120</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2980,7 +2976,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3006,7 +3002,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3029,13 +3025,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3086,7 +3082,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3112,7 +3108,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3141,7 +3137,7 @@
         <v>95</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>97</v>
@@ -3194,7 +3190,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3220,11 +3216,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3246,10 +3242,10 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>97</v>
@@ -3304,7 +3300,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3330,7 +3326,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3353,13 +3349,13 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3410,7 +3406,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>49</v>
@@ -3425,18 +3421,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3459,13 +3455,13 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3495,11 +3491,11 @@
         <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
       </c>
@@ -3516,7 +3512,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3542,7 +3538,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3565,13 +3561,13 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3622,7 +3618,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3648,7 +3644,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3671,13 +3667,13 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3728,7 +3724,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>49</v>
@@ -3743,18 +3739,18 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3777,13 +3773,13 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3834,7 +3830,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -3849,7 +3845,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -3860,7 +3856,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3883,13 +3879,13 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3940,7 +3936,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -3955,18 +3951,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3989,13 +3985,13 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4046,7 +4042,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4061,7 +4057,7 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4072,7 +4068,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4095,13 +4091,13 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4152,7 +4148,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4167,7 +4163,7 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>42</v>
@@ -4178,11 +4174,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4201,13 +4197,13 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4258,7 +4254,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4273,7 +4269,7 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4284,7 +4280,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4307,16 +4303,16 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4366,7 +4362,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
